--- a/notes/算法题记录.xlsx
+++ b/notes/算法题记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>双指针+哈希表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>相交链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串相加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,19 +413,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +439,11 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -443,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -451,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -467,8 +475,9 @@
     <hyperlink ref="C3" r:id="rId3"/>
     <hyperlink ref="C4" r:id="rId4"/>
     <hyperlink ref="D1" r:id="rId5"/>
+    <hyperlink ref="E1" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/notes/算法题记录.xlsx
+++ b/notes/算法题记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>双指针+哈希表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,22 @@
   </si>
   <si>
     <t>字符串相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环形链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K个一组翻转链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,20 +429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +458,11 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -451,20 +470,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -476,8 +504,12 @@
     <hyperlink ref="C4" r:id="rId4"/>
     <hyperlink ref="D1" r:id="rId5"/>
     <hyperlink ref="E1" r:id="rId6"/>
+    <hyperlink ref="F1" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId9"/>
+    <hyperlink ref="E4" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/notes/算法题记录.xlsx
+++ b/notes/算法题记录.xlsx
@@ -1,93 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19200" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>双指针+哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
   </si>
   <si>
     <t>无重复字符的最长子串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相交链表</t>
+  </si>
+  <si>
+    <t>字符串相加</t>
+  </si>
+  <si>
+    <t>环形链表</t>
+  </si>
+  <si>
+    <t>三数之和</t>
   </si>
   <si>
     <t>双向链表+哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LRU缓存机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>递归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合并两个有序链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表</t>
   </si>
   <si>
     <t>迭代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相交链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串相加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环形链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反转链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反转链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>K个一组翻转链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>最大子序和</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+  </si>
+  <si>
+    <t>两数之和</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -96,19 +96,348 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -116,27 +445,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -185,7 +796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,7 +831,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,70 +1034,73 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.3716814159292" customWidth="1"/>
+    <col min="5" max="5" width="16.2477876106195" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -495,21 +1109,43 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="D1" r:id="rId5"/>
-    <hyperlink ref="E1" r:id="rId6"/>
-    <hyperlink ref="F1" r:id="rId7"/>
-    <hyperlink ref="D4" r:id="rId8"/>
-    <hyperlink ref="D3" r:id="rId9"/>
-    <hyperlink ref="E4" r:id="rId10"/>
+    <hyperlink ref="C1" r:id="rId1" display="无重复字符的最长子串"/>
+    <hyperlink ref="C2" r:id="rId2" display="LRU缓存机制"/>
+    <hyperlink ref="C3" r:id="rId3" display="合并两个有序链表"/>
+    <hyperlink ref="C4" r:id="rId3" display="合并两个有序链表"/>
+    <hyperlink ref="D1" r:id="rId4" display="相交链表"/>
+    <hyperlink ref="E1" r:id="rId5" display="字符串相加"/>
+    <hyperlink ref="F1" r:id="rId6" display="环形链表"/>
+    <hyperlink ref="D4" r:id="rId7" display="反转链表"/>
+    <hyperlink ref="D3" r:id="rId7" display="反转链表"/>
+    <hyperlink ref="E4" r:id="rId8" display="K个一组翻转链表"/>
+    <hyperlink ref="C5" r:id="rId9" display="最大子序和"/>
+    <hyperlink ref="G1" r:id="rId10" display="三数之和"/>
+    <hyperlink ref="C6" r:id="rId11" display="两数之和"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/notes/算法题记录.xlsx
+++ b/notes/算法题记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>双指针+哈希表</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>最大子序和</t>
+  </si>
+  <si>
+    <t>股票问题I</t>
+  </si>
+  <si>
+    <t>股票问题Ⅱ</t>
+  </si>
+  <si>
+    <t>股票问题Ⅲ</t>
   </si>
   <si>
     <t>哈希表</t>
@@ -78,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,50 +110,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,13 +193,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,19 +221,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,38 +244,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,37 +254,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,145 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,54 +445,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,6 +472,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -533,165 +531,174 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1040,20 +1047,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="3" width="21.3716814159292" customWidth="1"/>
+    <col min="4" max="4" width="12.9557522123894" customWidth="1"/>
     <col min="5" max="5" width="16.2477876106195" customWidth="1"/>
+    <col min="6" max="6" width="13.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,16 +1084,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1094,8 +1109,12 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1108,8 +1127,11 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1119,14 +1141,46 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1143,6 +1197,9 @@
     <hyperlink ref="C5" r:id="rId9" display="最大子序和"/>
     <hyperlink ref="G1" r:id="rId10" display="三数之和"/>
     <hyperlink ref="C6" r:id="rId11" display="两数之和"/>
+    <hyperlink ref="D5" r:id="rId12" display="股票问题I"/>
+    <hyperlink ref="E5" r:id="rId13" display="股票问题Ⅱ"/>
+    <hyperlink ref="F5" r:id="rId14" display="股票问题Ⅲ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
